--- a/data/processed/forest/isfr_2021_reserve_corridors.xlsx
+++ b/data/processed/forest/isfr_2021_reserve_corridors.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reserve Forest Cover 2021" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Tiger Corridors" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Quick Reference" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="ArcGIS_Import" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="166">
   <si>
     <t xml:space="preserve">Forest Cover in Tiger Reserves — ISFR 2021 (Table 4.5) vs ISFR 2011</t>
   </si>
@@ -92,10 +93,7 @@
     <t xml:space="preserve">Pench</t>
   </si>
   <si>
-    <t xml:space="preserve">Pench - MH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maharashtra</t>
+    <t xml:space="preserve">Madhya Pradesh/ Maharashtra</t>
   </si>
   <si>
     <t xml:space="preserve">Ranthambore</t>
@@ -452,13 +450,13 @@
     <t xml:space="preserve">Kanha–Pench: 91.74% ✅; Kanha–Navegoan–Nagzira–Tadoba: 86.50% ✅ (India's largest)</t>
   </si>
   <si>
-    <t xml:space="preserve">Pench (MP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanha–Pench: 91.74% ✅; Pench–Satpura–Melghat: 83.21% ✅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pench (MH)</t>
+    <t xml:space="preserve">Pench (MP/MH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maharashtra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1906..94</t>
   </si>
   <si>
     <t xml:space="preserve">Pench–Satpura–Melghat: 83.21% ✅</t>
@@ -480,6 +478,57 @@
   </si>
   <si>
     <t xml:space="preserve">Corbett–Dudhwa: 74.74% ✅; Rajaji–Corbett: 73.53% ✅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserve_Name_Std </t>
+  </si>
+  <si>
+    <t xml:space="preserve">State </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR_Area_sqkm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VDF_2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDF_2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OF_2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_Forest_2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pct_of_TR_2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest_Change_sqkm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bandipur National Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagarahole National Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanha National Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pench Tiger Reserve (Combined)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MP / Maharashtra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranthambore Tiger Reserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaziranga National Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim Corbett National Park</t>
   </si>
 </sst>
 </file>
@@ -795,261 +844,273 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1304,644 +1365,602 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="1" width="12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="3" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="5" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="10" t="n">
         <v>1784.47</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="11" t="n">
         <v>160.26</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="11" t="n">
         <v>973.28</v>
       </c>
-      <c r="F5" s="10" t="n">
+      <c r="F5" s="11" t="n">
         <v>407.44</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="12" t="n">
         <v>1540.98</v>
       </c>
-      <c r="H5" s="12" t="n">
+      <c r="H5" s="13" t="n">
         <v>126.72</v>
       </c>
-      <c r="I5" s="13" t="n">
+      <c r="I5" s="14" t="n">
         <v>1002.77</v>
       </c>
-      <c r="J5" s="14" t="n">
+      <c r="J5" s="15" t="n">
         <v>368.14</v>
       </c>
-      <c r="K5" s="15" t="n">
+      <c r="K5" s="16" t="n">
         <v>1497.63</v>
       </c>
-      <c r="L5" s="16" t="n">
+      <c r="L5" s="17" t="n">
         <v>0.8393</v>
       </c>
-      <c r="M5" s="17" t="n">
+      <c r="M5" s="18" t="n">
         <v>-43.35</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="10" t="n">
         <v>1152.74</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="11" t="n">
         <v>229.06</v>
       </c>
-      <c r="E6" s="10" t="n">
+      <c r="E6" s="11" t="n">
         <v>557.35</v>
       </c>
-      <c r="F6" s="10" t="n">
+      <c r="F6" s="11" t="n">
         <v>185</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="12" t="n">
         <v>971.41</v>
       </c>
-      <c r="H6" s="12" t="n">
+      <c r="H6" s="13" t="n">
         <v>223.88</v>
       </c>
-      <c r="I6" s="13" t="n">
+      <c r="I6" s="14" t="n">
         <v>587.53</v>
       </c>
-      <c r="J6" s="14" t="n">
+      <c r="J6" s="15" t="n">
         <v>159.3</v>
       </c>
-      <c r="K6" s="15" t="n">
+      <c r="K6" s="16" t="n">
         <v>970.71</v>
       </c>
-      <c r="L6" s="16" t="n">
+      <c r="L6" s="17" t="n">
         <v>0.8421</v>
       </c>
-      <c r="M6" s="17" t="n">
+      <c r="M6" s="18" t="n">
         <v>-0.7</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="10" t="n">
         <v>2071.51</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="11" t="n">
         <v>387.34</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="11" t="n">
         <v>1030.22</v>
       </c>
-      <c r="F7" s="10" t="n">
+      <c r="F7" s="11" t="n">
         <v>476.2</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="12" t="n">
         <v>1893.76</v>
       </c>
-      <c r="H7" s="12" t="n">
+      <c r="H7" s="13" t="n">
         <v>419.09</v>
       </c>
-      <c r="I7" s="13" t="n">
+      <c r="I7" s="14" t="n">
         <v>1036.32</v>
       </c>
-      <c r="J7" s="14" t="n">
+      <c r="J7" s="15" t="n">
         <v>430.96</v>
       </c>
-      <c r="K7" s="15" t="n">
+      <c r="K7" s="16" t="n">
         <v>1886.37</v>
       </c>
-      <c r="L7" s="16" t="n">
+      <c r="L7" s="17" t="n">
         <v>0.9105</v>
       </c>
-      <c r="M7" s="17" t="n">
+      <c r="M7" s="18" t="n">
         <v>-7.39</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="N7" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="9" t="n">
-        <v>1168.66</v>
-      </c>
-      <c r="D8" s="10" t="n">
-        <v>89.67</v>
-      </c>
-      <c r="E8" s="10" t="n">
-        <v>637.37</v>
-      </c>
-      <c r="F8" s="10" t="n">
-        <v>349.16</v>
-      </c>
-      <c r="G8" s="11" t="n">
-        <v>1076.2</v>
-      </c>
-      <c r="H8" s="12" t="n">
-        <v>99.54</v>
-      </c>
-      <c r="I8" s="13" t="n">
-        <v>658.99</v>
-      </c>
-      <c r="J8" s="14" t="n">
-        <v>311.56</v>
-      </c>
-      <c r="K8" s="15" t="n">
-        <v>1070.09</v>
-      </c>
-      <c r="L8" s="16" t="n">
-        <v>0.9157</v>
-      </c>
-      <c r="M8" s="17" t="n">
-        <v>-6.11</v>
-      </c>
-      <c r="N8" s="18" t="s">
+      <c r="B8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="10" t="n">
+        <v>1906.94</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>119.63</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>1000.84</v>
+      </c>
+      <c r="F8" s="11" t="n">
+        <v>586.54</v>
+      </c>
+      <c r="G8" s="12" t="n">
+        <v>1587.38</v>
+      </c>
+      <c r="H8" s="13" t="n">
+        <v>134.67</v>
+      </c>
+      <c r="I8" s="14" t="n">
+        <v>1030.31</v>
+      </c>
+      <c r="J8" s="15" t="n">
+        <v>530.68</v>
+      </c>
+      <c r="K8" s="16" t="n">
+        <v>1695.66</v>
+      </c>
+      <c r="L8" s="17" t="n">
+        <v>0.8893</v>
+      </c>
+      <c r="M8" s="18" t="n">
+        <v>-11.35</v>
+      </c>
+      <c r="N8" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="9" t="n">
-        <v>738.28</v>
-      </c>
-      <c r="D9" s="10" t="n">
-        <v>29.96</v>
-      </c>
-      <c r="E9" s="10" t="n">
-        <v>363.47</v>
-      </c>
-      <c r="F9" s="10" t="n">
-        <v>237.38</v>
-      </c>
-      <c r="G9" s="11" t="n">
-        <v>630.81</v>
-      </c>
-      <c r="H9" s="12" t="n">
-        <v>35.13</v>
-      </c>
-      <c r="I9" s="13" t="n">
-        <v>371.32</v>
-      </c>
-      <c r="J9" s="14" t="n">
-        <v>219.12</v>
-      </c>
-      <c r="K9" s="15" t="n">
-        <v>625.57</v>
-      </c>
-      <c r="L9" s="16" t="n">
-        <v>0.8473</v>
-      </c>
-      <c r="M9" s="17" t="n">
-        <v>-5.24</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>17</v>
+      <c r="B9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="22" t="n">
+        <v>1765.57</v>
+      </c>
+      <c r="D9" s="11" t="n">
+        <v>115.75</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>588.28</v>
+      </c>
+      <c r="F9" s="11" t="n">
+        <v>479.07</v>
+      </c>
+      <c r="G9" s="12" t="n">
+        <v>1183.1</v>
+      </c>
+      <c r="H9" s="13" t="n">
+        <v>161.23</v>
+      </c>
+      <c r="I9" s="14" t="n">
+        <v>658.09</v>
+      </c>
+      <c r="J9" s="15" t="n">
+        <v>540.98</v>
+      </c>
+      <c r="K9" s="16" t="n">
+        <v>1360.3</v>
+      </c>
+      <c r="L9" s="23" t="n">
+        <v>0.7705</v>
+      </c>
+      <c r="M9" s="24" t="n">
+        <v>177.2</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="22" t="n">
+        <v>1180.35</v>
+      </c>
+      <c r="D10" s="11" t="n">
+        <v>336.05</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>430.28</v>
+      </c>
+      <c r="F10" s="11" t="n">
+        <v>139.35</v>
+      </c>
+      <c r="G10" s="12" t="n">
+        <v>905.68</v>
+      </c>
+      <c r="H10" s="13" t="n">
+        <v>286.34</v>
+      </c>
+      <c r="I10" s="14" t="n">
+        <v>630.48</v>
+      </c>
+      <c r="J10" s="15" t="n">
+        <v>263.34</v>
+      </c>
+      <c r="K10" s="16" t="n">
+        <v>1180.16</v>
+      </c>
+      <c r="L10" s="23" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="M10" s="24" t="n">
+        <v>274.48</v>
+      </c>
+      <c r="N10" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="21" t="n">
-        <v>1765.57</v>
-      </c>
-      <c r="D10" s="10" t="n">
-        <v>115.75</v>
-      </c>
-      <c r="E10" s="10" t="n">
-        <v>588.28</v>
-      </c>
-      <c r="F10" s="10" t="n">
-        <v>479.07</v>
-      </c>
-      <c r="G10" s="11" t="n">
-        <v>1183.1</v>
-      </c>
-      <c r="H10" s="12" t="n">
-        <v>161.23</v>
-      </c>
-      <c r="I10" s="13" t="n">
-        <v>658.09</v>
-      </c>
-      <c r="J10" s="14" t="n">
-        <v>540.98</v>
-      </c>
-      <c r="K10" s="15" t="n">
-        <v>1360.3</v>
-      </c>
-      <c r="L10" s="22" t="n">
-        <v>0.7705</v>
-      </c>
-      <c r="M10" s="23" t="n">
-        <v>177.2</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="21" t="n">
-        <v>1180.35</v>
-      </c>
-      <c r="D11" s="10" t="n">
-        <v>336.05</v>
-      </c>
-      <c r="E11" s="10" t="n">
-        <v>430.28</v>
-      </c>
-      <c r="F11" s="10" t="n">
-        <v>139.35</v>
-      </c>
-      <c r="G11" s="11" t="n">
-        <v>905.68</v>
-      </c>
-      <c r="H11" s="12" t="n">
-        <v>286.34</v>
-      </c>
-      <c r="I11" s="13" t="n">
-        <v>630.48</v>
-      </c>
-      <c r="J11" s="14" t="n">
-        <v>263.34</v>
-      </c>
-      <c r="K11" s="15" t="n">
-        <v>1180.16</v>
-      </c>
-      <c r="L11" s="22" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="M11" s="23" t="n">
-        <v>274.48</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="s">
+      <c r="B11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="C11" s="28" t="n">
+        <v>1462.66</v>
+      </c>
+      <c r="D11" s="11" t="n">
+        <v>263.91</v>
+      </c>
+      <c r="E11" s="11" t="n">
+        <v>777.2</v>
+      </c>
+      <c r="F11" s="11" t="n">
+        <v>205.92</v>
+      </c>
+      <c r="G11" s="12" t="n">
+        <v>1247.03</v>
+      </c>
+      <c r="H11" s="13" t="n">
+        <v>311.35</v>
+      </c>
+      <c r="I11" s="14" t="n">
+        <v>288.48</v>
+      </c>
+      <c r="J11" s="15" t="n">
+        <v>52.55</v>
+      </c>
+      <c r="K11" s="16" t="n">
+        <v>652.38</v>
+      </c>
+      <c r="L11" s="29" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="M11" s="18" t="n">
+        <v>-594.65</v>
+      </c>
+      <c r="N11" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="27" t="n">
-        <v>1462.66</v>
-      </c>
-      <c r="D12" s="10" t="n">
-        <v>263.91</v>
-      </c>
-      <c r="E12" s="10" t="n">
-        <v>777.2</v>
-      </c>
-      <c r="F12" s="10" t="n">
-        <v>205.92</v>
-      </c>
-      <c r="G12" s="11" t="n">
-        <v>1247.03</v>
-      </c>
-      <c r="H12" s="12" t="n">
-        <v>311.35</v>
-      </c>
-      <c r="I12" s="13" t="n">
-        <v>288.48</v>
-      </c>
-      <c r="J12" s="14" t="n">
-        <v>52.55</v>
-      </c>
-      <c r="K12" s="15" t="n">
-        <v>652.38</v>
-      </c>
-      <c r="L12" s="28" t="n">
-        <v>0.446</v>
-      </c>
-      <c r="M12" s="17" t="n">
-        <v>-594.65</v>
-      </c>
-      <c r="N12" s="29" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32" t="n">
+        <f aca="false">SUM(D5:D11)</f>
+        <v>1612</v>
+      </c>
+      <c r="E12" s="32" t="n">
+        <f aca="false">SUM(E5:E11)</f>
+        <v>5357.45</v>
+      </c>
+      <c r="F12" s="32" t="n">
+        <f aca="false">SUM(F5:F11)</f>
+        <v>2479.52</v>
+      </c>
+      <c r="G12" s="32" t="n">
+        <f aca="false">SUM(G5:G11)</f>
+        <v>9329.34</v>
+      </c>
+      <c r="H12" s="32" t="n">
+        <f aca="false">SUM(H5:H11)</f>
+        <v>1663.28</v>
+      </c>
+      <c r="I12" s="32" t="n">
+        <f aca="false">SUM(I5:I11)</f>
+        <v>5233.98</v>
+      </c>
+      <c r="J12" s="32" t="n">
+        <f aca="false">SUM(J5:J11)</f>
+        <v>2345.95</v>
+      </c>
+      <c r="K12" s="32" t="n">
+        <f aca="false">SUM(K5:K11)</f>
+        <v>9243.21</v>
+      </c>
+      <c r="L12" s="33" t="n">
+        <f aca="false">AVERAGE(L5:L11)</f>
+        <v>0.793957142857143</v>
+      </c>
+      <c r="M12" s="34" t="n">
+        <f aca="false">SUM(M5:M11)</f>
+        <v>-205.76</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31" t="n">
-        <f aca="false">SUM(D5:D12)</f>
-        <v>1612</v>
-      </c>
-      <c r="E13" s="31" t="n">
-        <f aca="false">SUM(E5:E12)</f>
-        <v>5357.45</v>
-      </c>
-      <c r="F13" s="31" t="n">
-        <f aca="false">SUM(F5:F12)</f>
-        <v>2479.52</v>
-      </c>
-      <c r="G13" s="31" t="n">
-        <f aca="false">SUM(G5:G12)</f>
-        <v>9448.97</v>
-      </c>
-      <c r="H13" s="31" t="n">
-        <f aca="false">SUM(H5:H12)</f>
-        <v>1663.28</v>
-      </c>
-      <c r="I13" s="31" t="n">
-        <f aca="false">SUM(I5:I12)</f>
-        <v>5233.98</v>
-      </c>
-      <c r="J13" s="31" t="n">
-        <f aca="false">SUM(J5:J12)</f>
-        <v>2345.95</v>
-      </c>
-      <c r="K13" s="31" t="n">
-        <f aca="false">SUM(K5:K12)</f>
-        <v>9243.21</v>
-      </c>
-      <c r="L13" s="32" t="n">
-        <f aca="false">AVERAGE(L5:L12)</f>
-        <v>0.803925</v>
-      </c>
-      <c r="M13" s="33" t="n">
-        <f aca="false">SUM(M5:M12)</f>
-        <v>-205.76</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+    </row>
+    <row r="15" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
+      <c r="B15" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
     </row>
     <row r="16" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
+      <c r="B16" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
+      <c r="B17" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
     </row>
     <row r="18" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
+      <c r="B18" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
     </row>
     <row r="19" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="36" t="s">
+      <c r="A19" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-    </row>
-    <row r="20" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="35" t="s">
+      <c r="B19" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-    </row>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A1:N1"/>
@@ -1949,13 +1968,13 @@
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="B15:N15"/>
     <mergeCell ref="B16:N16"/>
     <mergeCell ref="B17:N17"/>
     <mergeCell ref="B18:N18"/>
     <mergeCell ref="B19:N19"/>
-    <mergeCell ref="B20:N20"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1980,679 +1999,679 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="3" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="38" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+    </row>
+    <row r="5" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-    </row>
-    <row r="5" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38" t="s">
+      <c r="B5" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="D5" s="22" t="n">
+        <v>132.03</v>
+      </c>
+      <c r="E5" s="13" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="F5" s="14" t="n">
+        <v>73.97</v>
+      </c>
+      <c r="G5" s="15" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="H5" s="16" t="n">
+        <v>125.26</v>
+      </c>
+      <c r="I5" s="23" t="n">
+        <v>0.9487</v>
+      </c>
+      <c r="J5" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="21" t="n">
-        <v>132.03</v>
-      </c>
-      <c r="E5" s="12" t="n">
-        <v>23.94</v>
-      </c>
-      <c r="F5" s="13" t="n">
-        <v>73.97</v>
-      </c>
-      <c r="G5" s="14" t="n">
-        <v>27.35</v>
-      </c>
-      <c r="H5" s="15" t="n">
-        <v>125.26</v>
-      </c>
-      <c r="I5" s="22" t="n">
-        <v>0.9487</v>
-      </c>
-      <c r="J5" s="39" t="s">
+      <c r="K5" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="L5" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="40" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="39" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38" t="s">
+      <c r="B6" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="C6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="22" t="n">
+        <v>180.18</v>
+      </c>
+      <c r="E6" s="13" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="F6" s="14" t="n">
+        <v>71.82</v>
+      </c>
+      <c r="G6" s="15" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="H6" s="16" t="n">
+        <v>162.49</v>
+      </c>
+      <c r="I6" s="23" t="n">
+        <v>0.9018</v>
+      </c>
+      <c r="J6" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="K6" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="21" t="n">
-        <v>180.18</v>
-      </c>
-      <c r="E6" s="12" t="n">
-        <v>64.2</v>
-      </c>
-      <c r="F6" s="13" t="n">
-        <v>71.82</v>
-      </c>
-      <c r="G6" s="14" t="n">
-        <v>26.47</v>
-      </c>
-      <c r="H6" s="15" t="n">
-        <v>162.49</v>
-      </c>
-      <c r="I6" s="22" t="n">
-        <v>0.9018</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="20" t="s">
+      <c r="D7" s="22" t="n">
+        <v>306.82</v>
+      </c>
+      <c r="E7" s="13" t="n">
+        <v>126.76</v>
+      </c>
+      <c r="F7" s="14" t="n">
+        <v>129.98</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="H7" s="16" t="n">
+        <v>284.11</v>
+      </c>
+      <c r="I7" s="23" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="J7" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="21" t="n">
-        <v>306.82</v>
-      </c>
-      <c r="E7" s="12" t="n">
-        <v>126.76</v>
-      </c>
-      <c r="F7" s="13" t="n">
-        <v>129.98</v>
-      </c>
-      <c r="G7" s="14" t="n">
-        <v>27.37</v>
-      </c>
-      <c r="H7" s="15" t="n">
-        <v>284.11</v>
-      </c>
-      <c r="I7" s="22" t="n">
-        <v>0.926</v>
-      </c>
-      <c r="J7" s="39" t="s">
+      <c r="K7" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="L7" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="L7" s="40" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="39" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38" t="s">
+      <c r="B8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="20" t="s">
+      <c r="D8" s="22" t="n">
+        <v>432.85</v>
+      </c>
+      <c r="E8" s="13" t="n">
+        <v>165.72</v>
+      </c>
+      <c r="F8" s="14" t="n">
+        <v>212.04</v>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>27.68</v>
+      </c>
+      <c r="H8" s="16" t="n">
+        <v>405.44</v>
+      </c>
+      <c r="I8" s="23" t="n">
+        <v>0.9367</v>
+      </c>
+      <c r="J8" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="21" t="n">
-        <v>432.85</v>
-      </c>
-      <c r="E8" s="12" t="n">
-        <v>165.72</v>
-      </c>
-      <c r="F8" s="13" t="n">
-        <v>212.04</v>
-      </c>
-      <c r="G8" s="14" t="n">
-        <v>27.68</v>
-      </c>
-      <c r="H8" s="15" t="n">
-        <v>405.44</v>
-      </c>
-      <c r="I8" s="22" t="n">
-        <v>0.9367</v>
-      </c>
-      <c r="J8" s="39" t="s">
+      <c r="K8" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="40" t="s">
+      <c r="L8" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="40" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="42" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="41" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+    </row>
+    <row r="10" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-    </row>
-    <row r="10" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="38" t="s">
+      <c r="B10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="D10" s="22" t="n">
+        <v>538.47</v>
+      </c>
+      <c r="E10" s="13" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="F10" s="14" t="n">
+        <v>293.87</v>
+      </c>
+      <c r="G10" s="15" t="n">
+        <v>90.04</v>
+      </c>
+      <c r="H10" s="16" t="n">
+        <v>494.01</v>
+      </c>
+      <c r="I10" s="23" t="n">
+        <v>0.9174</v>
+      </c>
+      <c r="J10" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="21" t="n">
-        <v>538.47</v>
-      </c>
-      <c r="E10" s="12" t="n">
-        <v>110.1</v>
-      </c>
-      <c r="F10" s="13" t="n">
-        <v>293.87</v>
-      </c>
-      <c r="G10" s="14" t="n">
-        <v>90.04</v>
-      </c>
-      <c r="H10" s="15" t="n">
-        <v>494.01</v>
-      </c>
-      <c r="I10" s="22" t="n">
-        <v>0.9174</v>
-      </c>
-      <c r="J10" s="39" t="s">
+      <c r="K10" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="40" t="s">
+      <c r="L10" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="L10" s="40" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="43" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="42" t="s">
+      <c r="B11" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="C11" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="D11" s="45" t="n">
+        <v>1437.03</v>
+      </c>
+      <c r="E11" s="13" t="n">
+        <v>130.03</v>
+      </c>
+      <c r="F11" s="14" t="n">
+        <v>673.51</v>
+      </c>
+      <c r="G11" s="15" t="n">
+        <v>392.25</v>
+      </c>
+      <c r="H11" s="16" t="n">
+        <v>1195.79</v>
+      </c>
+      <c r="I11" s="46" t="n">
+        <v>0.8321</v>
+      </c>
+      <c r="J11" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="44" t="n">
-        <v>1437.03</v>
-      </c>
-      <c r="E11" s="12" t="n">
-        <v>130.03</v>
-      </c>
-      <c r="F11" s="13" t="n">
-        <v>673.51</v>
-      </c>
-      <c r="G11" s="14" t="n">
-        <v>392.25</v>
-      </c>
-      <c r="H11" s="15" t="n">
-        <v>1195.79</v>
-      </c>
-      <c r="I11" s="45" t="n">
-        <v>0.8321</v>
-      </c>
-      <c r="J11" s="46" t="s">
+      <c r="K11" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="47" t="s">
+      <c r="L11" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="L11" s="47" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="43" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="42" t="s">
+      <c r="B12" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="C12" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="45" t="n">
+        <v>2326.38</v>
+      </c>
+      <c r="E12" s="13" t="n">
+        <v>857.65</v>
+      </c>
+      <c r="F12" s="14" t="n">
+        <v>882.87</v>
+      </c>
+      <c r="G12" s="15" t="n">
+        <v>271.74</v>
+      </c>
+      <c r="H12" s="16" t="n">
+        <v>2012.26</v>
+      </c>
+      <c r="I12" s="46" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="J12" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="44" t="n">
-        <v>2326.38</v>
-      </c>
-      <c r="E12" s="12" t="n">
-        <v>857.65</v>
-      </c>
-      <c r="F12" s="13" t="n">
-        <v>882.87</v>
-      </c>
-      <c r="G12" s="14" t="n">
-        <v>271.74</v>
-      </c>
-      <c r="H12" s="15" t="n">
-        <v>2012.26</v>
-      </c>
-      <c r="I12" s="45" t="n">
-        <v>0.865</v>
-      </c>
-      <c r="J12" s="46" t="s">
+      <c r="K12" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="K12" s="47" t="s">
+      <c r="L12" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="L12" s="47" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="49" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="48" t="s">
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+    </row>
+    <row r="14" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-    </row>
-    <row r="14" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="42" t="s">
+      <c r="B14" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="C14" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="45" t="n">
+        <v>535.47</v>
+      </c>
+      <c r="E14" s="13" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F14" s="14" t="n">
+        <v>123.34</v>
+      </c>
+      <c r="G14" s="15" t="n">
+        <v>315.86</v>
+      </c>
+      <c r="H14" s="16" t="n">
+        <v>439.71</v>
+      </c>
+      <c r="I14" s="46" t="n">
+        <v>0.8212</v>
+      </c>
+      <c r="J14" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="44" t="n">
-        <v>535.47</v>
-      </c>
-      <c r="E14" s="12" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="F14" s="13" t="n">
-        <v>123.34</v>
-      </c>
-      <c r="G14" s="14" t="n">
-        <v>315.86</v>
-      </c>
-      <c r="H14" s="15" t="n">
-        <v>439.71</v>
-      </c>
-      <c r="I14" s="45" t="n">
-        <v>0.8212</v>
-      </c>
-      <c r="J14" s="46" t="s">
+      <c r="K14" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="47" t="s">
+      <c r="L14" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="L14" s="47" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="50" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="49" t="s">
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+    </row>
+    <row r="16" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-    </row>
-    <row r="16" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="42" t="s">
+      <c r="B16" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="45" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="E16" s="13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F16" s="14" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="G16" s="15" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="H16" s="16" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="I16" s="46" t="n">
+        <v>0.8189</v>
+      </c>
+      <c r="J16" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="K16" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="53" t="n">
+        <v>171.77</v>
+      </c>
+      <c r="E17" s="13" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F17" s="14" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="G17" s="15" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="H17" s="16" t="n">
+        <v>30.67</v>
+      </c>
+      <c r="I17" s="54" t="n">
+        <v>0.1786</v>
+      </c>
+      <c r="J17" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="53" t="n">
+        <v>236.39</v>
+      </c>
+      <c r="E18" s="13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F18" s="14" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="G18" s="15" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="H18" s="16" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="I18" s="54" t="n">
+        <v>0.1154</v>
+      </c>
+      <c r="J18" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="L18" s="56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+    </row>
+    <row r="20" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="44" t="n">
-        <v>32.35</v>
-      </c>
-      <c r="E16" s="12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="F16" s="13" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="G16" s="14" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="H16" s="15" t="n">
-        <v>26.49</v>
-      </c>
-      <c r="I16" s="45" t="n">
-        <v>0.8189</v>
-      </c>
-      <c r="J16" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="K16" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="L16" s="47" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="52" t="n">
-        <v>171.77</v>
-      </c>
-      <c r="E17" s="12" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="F17" s="13" t="n">
-        <v>15.07</v>
-      </c>
-      <c r="G17" s="14" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="H17" s="15" t="n">
-        <v>30.67</v>
-      </c>
-      <c r="I17" s="53" t="n">
-        <v>0.1786</v>
-      </c>
-      <c r="J17" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="K17" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="L17" s="55" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="52" t="n">
-        <v>236.39</v>
-      </c>
-      <c r="E18" s="12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="F18" s="13" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="G18" s="14" t="n">
-        <v>16.61</v>
-      </c>
-      <c r="H18" s="15" t="n">
-        <v>27.29</v>
-      </c>
-      <c r="I18" s="53" t="n">
-        <v>0.1154</v>
-      </c>
-      <c r="J18" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="K18" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="L18" s="55" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-    </row>
-    <row r="20" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="35" t="s">
+      <c r="D20" s="59" t="n">
+        <v>872.9</v>
+      </c>
+      <c r="E20" s="13" t="n">
+        <v>311.35</v>
+      </c>
+      <c r="F20" s="14" t="n">
+        <v>288.48</v>
+      </c>
+      <c r="G20" s="15" t="n">
+        <v>52.55</v>
+      </c>
+      <c r="H20" s="16" t="n">
+        <v>652.38</v>
+      </c>
+      <c r="I20" s="60" t="n">
+        <v>0.7474</v>
+      </c>
+      <c r="J20" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="L20" s="62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="58" t="n">
-        <v>872.9</v>
-      </c>
-      <c r="E20" s="12" t="n">
-        <v>311.35</v>
-      </c>
-      <c r="F20" s="13" t="n">
-        <v>288.48</v>
-      </c>
-      <c r="G20" s="14" t="n">
-        <v>52.55</v>
-      </c>
-      <c r="H20" s="15" t="n">
-        <v>652.38</v>
-      </c>
-      <c r="I20" s="59" t="n">
-        <v>0.7474</v>
-      </c>
-      <c r="J20" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="K20" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="61" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="35" t="s">
+      <c r="C21" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="59" t="n">
+        <v>170.66</v>
+      </c>
+      <c r="E21" s="13" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F21" s="14" t="n">
+        <v>66.02</v>
+      </c>
+      <c r="G21" s="15" t="n">
+        <v>32.01</v>
+      </c>
+      <c r="H21" s="16" t="n">
+        <v>125.53</v>
+      </c>
+      <c r="I21" s="60" t="n">
+        <v>0.7353</v>
+      </c>
+      <c r="J21" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="58" t="n">
-        <v>170.66</v>
-      </c>
-      <c r="E21" s="12" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F21" s="13" t="n">
-        <v>66.02</v>
-      </c>
-      <c r="G21" s="14" t="n">
-        <v>32.01</v>
-      </c>
-      <c r="H21" s="15" t="n">
-        <v>125.53</v>
-      </c>
-      <c r="I21" s="59" t="n">
-        <v>0.7353</v>
-      </c>
-      <c r="J21" s="60" t="s">
+      <c r="K21" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="K21" s="61" t="s">
+      <c r="L21" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="L21" s="61" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="37" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2680,282 +2699,258 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="40"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="40"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>1784.47</v>
+      </c>
+      <c r="D4" s="16" t="n">
+        <v>1497.63</v>
+      </c>
+      <c r="E4" s="17" t="n">
+        <v>0.8393</v>
+      </c>
+      <c r="F4" s="63" t="n">
+        <v>-43.35</v>
+      </c>
+      <c r="G4" s="64" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="H4" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="9" t="n">
-        <v>1784.47</v>
-      </c>
-      <c r="D4" s="15" t="n">
-        <v>1497.63</v>
-      </c>
-      <c r="E4" s="16" t="n">
-        <v>0.8393</v>
-      </c>
-      <c r="F4" s="62" t="n">
-        <v>-43.35</v>
-      </c>
-      <c r="G4" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="C5" s="10" t="n">
+        <v>1152.74</v>
+      </c>
+      <c r="D5" s="16" t="n">
+        <v>970.71</v>
+      </c>
+      <c r="E5" s="17" t="n">
+        <v>0.8421</v>
+      </c>
+      <c r="F5" s="63" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="G5" s="64" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="9" t="n">
-        <v>1152.74</v>
-      </c>
-      <c r="D5" s="15" t="n">
-        <v>970.71</v>
-      </c>
-      <c r="E5" s="16" t="n">
-        <v>0.8421</v>
-      </c>
-      <c r="F5" s="62" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="G5" s="63" t="s">
+      <c r="H5" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H5" s="8" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>2071.51</v>
+      </c>
+      <c r="D6" s="16" t="n">
+        <v>1886.37</v>
+      </c>
+      <c r="E6" s="17" t="n">
+        <v>0.9105</v>
+      </c>
+      <c r="F6" s="63" t="n">
+        <v>-7.39</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="9" t="n">
-        <v>2071.51</v>
-      </c>
-      <c r="D6" s="15" t="n">
-        <v>1886.37</v>
-      </c>
-      <c r="E6" s="16" t="n">
-        <v>0.9105</v>
-      </c>
-      <c r="F6" s="62" t="n">
-        <v>-7.39</v>
-      </c>
-      <c r="G6" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" s="8" t="s">
+    <row r="7" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="9" t="n">
-        <v>1168.66</v>
-      </c>
-      <c r="D7" s="15" t="n">
-        <v>1070.09</v>
-      </c>
-      <c r="E7" s="16" t="n">
-        <v>0.9157</v>
-      </c>
-      <c r="F7" s="62" t="n">
-        <v>-6.11</v>
-      </c>
-      <c r="G7" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="C7" s="10" t="s">
         <v>141</v>
       </c>
+      <c r="D7" s="16" t="n">
+        <v>1695.66</v>
+      </c>
+      <c r="E7" s="17" t="n">
+        <v>0.8893</v>
+      </c>
+      <c r="F7" s="63" t="n">
+        <v>-11.35</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="9" t="n">
-        <v>738.28</v>
-      </c>
-      <c r="D8" s="15" t="n">
-        <v>625.57</v>
-      </c>
-      <c r="E8" s="16" t="n">
-        <v>0.8473</v>
-      </c>
-      <c r="F8" s="62" t="n">
-        <v>-5.24</v>
-      </c>
-      <c r="G8" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="B8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="22" t="n">
+        <v>1765.57</v>
+      </c>
+      <c r="D8" s="16" t="n">
+        <v>1360.3</v>
+      </c>
+      <c r="E8" s="23" t="n">
+        <v>0.7705</v>
+      </c>
+      <c r="F8" s="24" t="n">
+        <v>177.2</v>
+      </c>
+      <c r="G8" s="25" t="s">
         <v>143</v>
       </c>
+      <c r="H8" s="21" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="21" t="n">
-        <v>1765.57</v>
-      </c>
-      <c r="D9" s="15" t="n">
-        <v>1360.3</v>
-      </c>
-      <c r="E9" s="22" t="n">
-        <v>0.7705</v>
-      </c>
-      <c r="F9" s="23" t="n">
-        <v>177.2</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="H9" s="20" t="s">
+      <c r="A9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="22" t="n">
+        <v>1180.35</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>1180.16</v>
+      </c>
+      <c r="E9" s="23" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F9" s="24" t="n">
+        <v>274.48</v>
+      </c>
+      <c r="G9" s="25" t="s">
         <v>145</v>
       </c>
+      <c r="H9" s="21" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="21" t="n">
-        <v>1180.35</v>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>1180.16</v>
-      </c>
-      <c r="E10" s="22" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="F10" s="23" t="n">
-        <v>274.48</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="H10" s="20" t="s">
+      <c r="B10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="28" t="n">
+        <v>1462.66</v>
+      </c>
+      <c r="D10" s="16" t="n">
+        <v>652.38</v>
+      </c>
+      <c r="E10" s="29" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="F10" s="18" t="n">
+        <v>-594.65</v>
+      </c>
+      <c r="G10" s="30" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="27" t="n">
-        <v>1462.66</v>
-      </c>
-      <c r="D11" s="15" t="n">
-        <v>652.38</v>
-      </c>
-      <c r="E11" s="28" t="n">
-        <v>0.446</v>
-      </c>
-      <c r="F11" s="17" t="n">
-        <v>-594.65</v>
-      </c>
-      <c r="G11" s="29" t="s">
+      <c r="H10" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="H11" s="26" t="s">
-        <v>149</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
@@ -2969,4 +2964,268 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="24.06"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1784.47</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>126.72</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1002.77</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>368.14</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1497.63</v>
+      </c>
+      <c r="H2" s="66" t="n">
+        <v>0.8393</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>-43.35</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1152.74</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>223.88</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>587.53</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>159.3</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>970.71</v>
+      </c>
+      <c r="H3" s="66" t="n">
+        <v>0.8421</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2071.51</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>419.09</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1036.32</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>430.96</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1886.37</v>
+      </c>
+      <c r="H4" s="66" t="n">
+        <v>0.9105</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>-7.39</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1906.94</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>134.67</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1030.31</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>530.68</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1695.66</v>
+      </c>
+      <c r="H5" s="66" t="n">
+        <v>0.8893</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>-11.35</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1765.57</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>161.23</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>658.09</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>540.98</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1360.3</v>
+      </c>
+      <c r="H6" s="66" t="n">
+        <v>0.7705</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>177.2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1180.35</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>286.34</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>630.48</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>263.34</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1180.16</v>
+      </c>
+      <c r="H7" s="66" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>274.48</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1462.66</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>311.35</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>288.48</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>52.55</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>652.38</v>
+      </c>
+      <c r="H8" s="66" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>-594.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>